--- a/gameTb/agent/setting/基础配置.xlsx
+++ b/gameTb/agent/setting/基础配置.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>猜拳ios</t>
   </si>
@@ -275,18 +275,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>updateNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int16_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>curl更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,6 +345,26 @@
   </si>
   <si>
     <t>figusagent</t>
+  </si>
+  <si>
+    <t>verMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新高位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新低位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -730,7 +742,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -799,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -808,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -831,105 +843,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="8.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -939,26 +960,29 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>isJsonk</formula1>
     </dataValidation>
   </dataValidations>
@@ -1129,7 +1153,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1158,7 +1182,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1166,7 +1190,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1294,10 +1318,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1334,15 +1358,15 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1355,18 +1379,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
